--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N2">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q2">
-        <v>25.94978804118089</v>
+        <v>38.46871194074634</v>
       </c>
       <c r="R2">
-        <v>233.548092370628</v>
+        <v>346.2184074667171</v>
       </c>
       <c r="S2">
-        <v>0.003863338062187845</v>
+        <v>0.006142257762010312</v>
       </c>
       <c r="T2">
-        <v>0.003863338062187844</v>
+        <v>0.006142257762010312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q3">
-        <v>247.7700605804169</v>
+        <v>278.8450712207462</v>
       </c>
       <c r="R3">
-        <v>2229.930545223752</v>
+        <v>2509.605640986716</v>
       </c>
       <c r="S3">
-        <v>0.0368873728059689</v>
+        <v>0.04452289189568112</v>
       </c>
       <c r="T3">
-        <v>0.03688737280596889</v>
+        <v>0.04452289189568113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N4">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O4">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P4">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q4">
-        <v>173.2589826064347</v>
+        <v>205.7459148988636</v>
       </c>
       <c r="R4">
-        <v>1559.330843457912</v>
+        <v>1851.713234089772</v>
       </c>
       <c r="S4">
-        <v>0.02579435412178113</v>
+        <v>0.03285122841482225</v>
       </c>
       <c r="T4">
-        <v>0.02579435412178112</v>
+        <v>0.03285122841482225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N5">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O5">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P5">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q5">
-        <v>15.60768846997733</v>
+        <v>25.89757531853633</v>
       </c>
       <c r="R5">
-        <v>140.469196229796</v>
+        <v>233.078177866827</v>
       </c>
       <c r="S5">
-        <v>0.002323632733845245</v>
+        <v>0.00413503793063159</v>
       </c>
       <c r="T5">
-        <v>0.002323632733845245</v>
+        <v>0.004135037930631591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N6">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q6">
-        <v>167.9270951661558</v>
+        <v>221.1976252840657</v>
       </c>
       <c r="R6">
-        <v>1511.343856495402</v>
+        <v>1990.778627556591</v>
       </c>
       <c r="S6">
-        <v>0.02500055635901554</v>
+        <v>0.03531838635335764</v>
       </c>
       <c r="T6">
-        <v>0.02500055635901553</v>
+        <v>0.03531838635335764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q7">
         <v>1603.37751030503</v>
@@ -883,10 +883,10 @@
         <v>14430.39759274527</v>
       </c>
       <c r="S7">
-        <v>0.238706742181757</v>
+        <v>0.2560095584503412</v>
       </c>
       <c r="T7">
-        <v>0.2387067421817569</v>
+        <v>0.2560095584503413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N8">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O8">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P8">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q8">
-        <v>1121.199048499745</v>
+        <v>1183.052550800929</v>
       </c>
       <c r="R8">
-        <v>10090.79143649771</v>
+        <v>10647.47295720836</v>
       </c>
       <c r="S8">
-        <v>0.1669212462346088</v>
+        <v>0.1888967253235805</v>
       </c>
       <c r="T8">
-        <v>0.1669212462346088</v>
+        <v>0.1888967253235805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N9">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O9">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P9">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q9">
-        <v>101.0009709082127</v>
+        <v>148.9127624002357</v>
       </c>
       <c r="R9">
-        <v>909.0087381739141</v>
+        <v>1340.214861602121</v>
       </c>
       <c r="S9">
-        <v>0.01503676618122653</v>
+        <v>0.02377674022785332</v>
       </c>
       <c r="T9">
-        <v>0.01503676618122652</v>
+        <v>0.02377674022785333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N10">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q10">
-        <v>62.06815347764822</v>
+        <v>67.55935060075566</v>
       </c>
       <c r="R10">
-        <v>558.6133812988339</v>
+        <v>608.034155406801</v>
       </c>
       <c r="S10">
-        <v>0.00924054791504968</v>
+        <v>0.01078712867389593</v>
       </c>
       <c r="T10">
-        <v>0.009240547915049678</v>
+        <v>0.01078712867389593</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q11">
-        <v>592.6302797875062</v>
+        <v>489.7120537571497</v>
       </c>
       <c r="R11">
-        <v>5333.672518087556</v>
+        <v>4407.408483814348</v>
       </c>
       <c r="S11">
-        <v>0.0882292800648215</v>
+        <v>0.07819179565910639</v>
       </c>
       <c r="T11">
-        <v>0.08822928006482149</v>
+        <v>0.07819179565910643</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N12">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O12">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P12">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q12">
-        <v>414.4105187576707</v>
+        <v>361.3341777789684</v>
       </c>
       <c r="R12">
-        <v>3729.694668819036</v>
+        <v>3252.007600010716</v>
       </c>
       <c r="S12">
-        <v>0.06169637794138462</v>
+        <v>0.05769383860736107</v>
       </c>
       <c r="T12">
-        <v>0.0616963779413846</v>
+        <v>0.05769383860736108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N13">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O13">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P13">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q13">
-        <v>37.33134166061533</v>
+        <v>45.48172481962566</v>
       </c>
       <c r="R13">
-        <v>335.982074945538</v>
+        <v>409.335523376631</v>
       </c>
       <c r="S13">
-        <v>0.005557794650234486</v>
+        <v>0.007262017967569694</v>
       </c>
       <c r="T13">
-        <v>0.005557794650234485</v>
+        <v>0.007262017967569697</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N14">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q14">
-        <v>120.8558743074033</v>
+        <v>111.657261188809</v>
       </c>
       <c r="R14">
-        <v>1087.70286876663</v>
+        <v>1004.915350699281</v>
       </c>
       <c r="S14">
-        <v>0.0179927134090585</v>
+        <v>0.0178281945150168</v>
       </c>
       <c r="T14">
-        <v>0.0179927134090585</v>
+        <v>0.0178281945150168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q15">
-        <v>1153.938801007713</v>
+        <v>809.3610463605986</v>
       </c>
       <c r="R15">
-        <v>10385.44920906942</v>
+        <v>7284.249417245387</v>
       </c>
       <c r="S15">
-        <v>0.1717954568374052</v>
+        <v>0.1292298056907784</v>
       </c>
       <c r="T15">
-        <v>0.1717954568374052</v>
+        <v>0.1292298056907784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N16">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O16">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P16">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q16">
-        <v>806.9185687097801</v>
+        <v>597.1872776447107</v>
       </c>
       <c r="R16">
-        <v>7262.26711838802</v>
+        <v>5374.685498802395</v>
       </c>
       <c r="S16">
-        <v>0.1201319723550532</v>
+        <v>0.09535224878693628</v>
       </c>
       <c r="T16">
-        <v>0.1201319723550531</v>
+        <v>0.09535224878693628</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N17">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O17">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P17">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q17">
-        <v>72.68964328199</v>
+        <v>75.16894082527899</v>
       </c>
       <c r="R17">
-        <v>654.20678953791</v>
+        <v>676.5204674275109</v>
       </c>
       <c r="S17">
-        <v>0.01082184814660203</v>
+        <v>0.01200214374105727</v>
       </c>
       <c r="T17">
-        <v>0.01082184814660203</v>
+        <v>0.01200214374105727</v>
       </c>
     </row>
   </sheetData>
